--- a/GH.xlsx
+++ b/GH.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a30f881f0a25c12/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a30f881f0a25c12/Área de Trabalho/AulaGuitHub/Aulas-GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E115753E-265D-4F82-942C-20BC0F0C8714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{86439FBA-DBB6-4D80-B606-E0032F7BEFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{81123CD0-9DE5-4807-A442-B57F4EBB6A3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{81123CD0-9DE5-4807-A442-B57F4EBB6A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Comando</t>
   </si>
@@ -52,6 +53,27 @@
   </si>
   <si>
     <t>clone</t>
+  </si>
+  <si>
+    <t>Nomes</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Jak</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Ric</t>
   </si>
 </sst>
 </file>
@@ -405,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489BA31-ACA2-4F4D-882A-CB7F3ABA77D0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,4 +458,59 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC67544B-CA3F-4136-8F9B-D85B933F7136}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>